--- a/C U Shah - Internship Updates.xlsx
+++ b/C U Shah - Internship Updates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PranavPatel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DHARMIK MALVANIYA\OneDrive\Desktop\IT-Support-Hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AF3F208-B8E0-4840-91ED-5A5FD6B5EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4D7C9E-5666-4D92-BA86-C4EDD3E5B5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="13">
   <si>
     <t>INTERNSHIP BCA SEM 6 PROJECT</t>
   </si>
@@ -39,15 +39,6 @@
     <t>Tools</t>
   </si>
   <si>
-    <t>Wordpress PHP</t>
-  </si>
-  <si>
-    <t>Student 1</t>
-  </si>
-  <si>
-    <t>Student 2</t>
-  </si>
-  <si>
     <t>Definition</t>
   </si>
   <si>
@@ -58,6 +49,21 @@
   </si>
   <si>
     <t xml:space="preserve">Tutorial Video </t>
+  </si>
+  <si>
+    <t>React + Express.js + Node.js</t>
+  </si>
+  <si>
+    <t>Dharmik Malvania T</t>
+  </si>
+  <si>
+    <t>• HTML • CSS • JavaScript Revise</t>
+  </si>
+  <si>
+    <t>React JS Fundamentals</t>
+  </si>
+  <si>
+    <t>React JS Intermediate Concepts</t>
   </si>
 </sst>
 </file>
@@ -107,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -139,11 +145,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -156,9 +173,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,17 +457,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
     <col min="4" max="6" width="27.88671875" customWidth="1"/>
     <col min="7" max="7" width="36.88671875" customWidth="1"/>
   </cols>
@@ -476,101 +494,388 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
